--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalbe\Documents\baltazar\LCC\6to Semestre\investigacion de operaciones\PIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3230DBFD-625E-46F7-A951-DAA0EB4AF45D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F23E9B-F9F3-4D30-995E-81FB58CFBCAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="792" yWindow="816" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{9FCD1FBF-F13E-4821-A72B-53CFE5806235}"/>
   </bookViews>
@@ -37,8 +37,9 @@
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'3.6'!$E$9:$E$11</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'6.3-Mochila'!$F$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'6.3-Mochila'!$F$12</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'6.3-Mochila (entero)'!$C$6:$E$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'6.3-Mochila'!$F$9:$F$11</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'6.3-Mochila (entero)'!$F$9</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
@@ -59,7 +60,7 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
@@ -74,12 +75,14 @@
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'3.6'!$G$9:$G$11</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'6.3-Mochila'!$H$9</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'6.3-Mochila'!$H$12</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">entero</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'6.3-Mochila'!$H$9:$H$11</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'6.3-Mochila (entero)'!$H$9</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
@@ -128,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>max z=</t>
   </si>
@@ -152,6 +155,12 @@
   </si>
   <si>
     <t>s.a:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;= </t>
+  </si>
+  <si>
+    <t>&gt;=</t>
   </si>
 </sst>
 </file>
@@ -618,10 +627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89689732-B17A-49D6-A367-9DC6ED46A1A1}">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +641,7 @@
       </c>
       <c r="C2" s="1">
         <f>SUMPRODUCT(C4:E4,C6:E6)</f>
-        <v>27.5</v>
+        <v>26.249999999999996</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -654,10 +663,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>2.5</v>
+        <v>1.7499999999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -690,6 +699,69 @@
       </c>
       <c r="H9">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>SUMPRODUCT($C$6:$E$6,C10:E10)</f>
+        <v>1.7499999999999998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>SUMPRODUCT($C$6:$E$6,C11:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>SUMPRODUCT($C$6:$E$6,C12:E12)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
